--- a/data/trans_bre/P16A04-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A04-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-1.767081512417573</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.583937811522156</v>
+        <v>2.583937811522155</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.5300037090772143</v>
@@ -649,7 +649,7 @@
         <v>-0.5594623927456598</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1.752845608624437</v>
+        <v>1.752845608624436</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.927252506942299</v>
+        <v>-2.995183793051662</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.943863226774528</v>
+        <v>-2.511422698029739</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.16040958405871</v>
+        <v>-3.830946154406269</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8379905665789691</v>
+        <v>0.8735833167581593</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.884766005453705</v>
+        <v>-1</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.7575785532880777</v>
+        <v>-0.6978599850107687</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.9014240609102472</v>
+        <v>-0.8885159902624815</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2738018495772533</v>
+        <v>0.3420276565201757</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7572079947290548</v>
+        <v>0.7409153593978466</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.413437339810159</v>
+        <v>2.60714327969221</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4588577515142848</v>
+        <v>0.6757539939147471</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.631520018437423</v>
+        <v>4.687217540625193</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8706215440628393</v>
+        <v>1.097858844174293</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.853824890288934</v>
+        <v>2.179666449755475</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5271554896004851</v>
+        <v>0.8076660992237451</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5.248587924484521</v>
+        <v>5.320692073102116</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.633993740258664</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.007932859919826049</v>
+        <v>0.007932859919826396</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.512026782756875</v>
@@ -749,7 +749,7 @@
         <v>-0.3369148629538866</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.004935694246085818</v>
+        <v>0.004935694246086034</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.2650923643516672</v>
+        <v>-0.04969864451680515</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.754621602631463</v>
+        <v>-1.720780783893252</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.531492524703261</v>
+        <v>-2.434001034028595</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.450730443588935</v>
+        <v>-1.406238630003872</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3461882992405919</v>
+        <v>-0.3185766817460158</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6391749000279878</v>
+        <v>-0.6450718124631133</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.8765618499917566</v>
+        <v>-0.8614047293596925</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6423739940127358</v>
+        <v>-0.6145624192717255</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.483711339863071</v>
+        <v>3.909415444232468</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.585737048673848</v>
+        <v>2.318419352902698</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.114669722810549</v>
+        <v>1.200857539946548</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.537342076608591</v>
+        <v>1.541084914089414</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>9.409064089022833</v>
+        <v>9.369071749951431</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.847873346552308</v>
+        <v>2.698915538932582</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.744649693792402</v>
+        <v>2.046594871664813</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.695970039150862</v>
+        <v>2.038863442385794</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.492441891880561</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4893137565490577</v>
+        <v>0.489313756549057</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.139893055080025</v>
@@ -849,7 +849,7 @@
         <v>2.96028268916932</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1090859982242229</v>
+        <v>0.1090859982242227</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4988883641443825</v>
+        <v>-0.3791371541804621</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.672427467492791</v>
+        <v>-3.223744903700983</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3527337324640876</v>
+        <v>0.4691320360503882</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.415187267788785</v>
+        <v>-2.587293441132501</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4108904017590211</v>
+        <v>-0.2666762579602237</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.712929656638963</v>
+        <v>-0.7116193986149614</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.148531384409347</v>
+        <v>-0.07825703119271069</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4582723322572155</v>
+        <v>-0.4505673146515326</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.806827766975694</v>
+        <v>6.112984795548633</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.991251361397091</v>
+        <v>2.650750705580558</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.540830747093413</v>
+        <v>8.456504708354744</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.758269465160827</v>
+        <v>3.887817845794331</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>5.100749288536026</v>
+        <v>5.953055608414283</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9616333434764757</v>
+        <v>0.9812242463277649</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>12.19722648214588</v>
+        <v>13.81837077232265</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.293877961999642</v>
+        <v>1.221718523167273</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.9813158659419132</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6555434408691316</v>
+        <v>0.6555434408691312</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5151154641655146</v>
@@ -949,7 +949,7 @@
         <v>0.4230535595860489</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.283980220769974</v>
+        <v>0.2839802207699739</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.4392219315677493</v>
+        <v>-0.3428256349034134</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.4028618140504876</v>
+        <v>-0.3208718912745905</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.5940884745922659</v>
+        <v>-0.6890403712396103</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.7454193587392535</v>
+        <v>-0.7241225805921657</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2082163092769849</v>
+        <v>-0.1855804966699127</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1203498839754234</v>
+        <v>-0.1261764945041777</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2228726748559976</v>
+        <v>-0.259630616167184</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2647058520418046</v>
+        <v>-0.2586578743326753</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.565665861710041</v>
+        <v>2.475026910887746</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.441472714464326</v>
+        <v>3.577734893633806</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.614242135556032</v>
+        <v>2.55299494575609</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.003987518259231</v>
+        <v>1.977861125060908</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.872715647946927</v>
+        <v>1.644940333911866</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.505679239206999</v>
+        <v>1.522857085752032</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.521386459288528</v>
+        <v>1.454988398279746</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.169677499814584</v>
+        <v>1.182374672609326</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.1624949586686345</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>1.412916251034832</v>
+        <v>1.412916251034831</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.973682665166948</v>
+        <v>-3.027676805212063</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.08635974899142</v>
+        <v>-3.131816041039481</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.346185884592335</v>
+        <v>-1.383199016843162</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8469951043529588</v>
+        <v>0.6214987525278154</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6885175425456832</v>
+        <v>-0.6747010267048102</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.6731925788668462</v>
+        <v>-0.7091446252358298</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4713465867286355</v>
+        <v>-0.4679286653197837</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2697658001103865</v>
+        <v>0.1445047390694459</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.507418359111961</v>
+        <v>1.546313047578488</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6361016307832003</v>
+        <v>0.7891263716539589</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.076912191872714</v>
+        <v>2.009279770091613</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.115651955018314</v>
+        <v>3.969517171472903</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9705190988246677</v>
+        <v>0.9485894188770352</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3317517352374123</v>
+        <v>0.4394166857286732</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.760477976929517</v>
+        <v>1.680006980143832</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4.181024977405119</v>
+        <v>3.893317189798291</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>0.6251213344894088</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.7699450987220663</v>
+        <v>-0.769945098722067</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.75460962584049</v>
@@ -1149,7 +1149,7 @@
         <v>0.6071752155883334</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.2258998030344987</v>
+        <v>-0.2258998030344989</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.3917190655525973</v>
+        <v>-0.3175973647770135</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.05820781872306268</v>
+        <v>-0.1913489006676603</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.333705067815899</v>
+        <v>-1.405923021257941</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-6.488982411403716</v>
+        <v>-6.620980831074648</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3127020538271892</v>
+        <v>-0.3777967175273962</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1552127660578028</v>
+        <v>-0.3028120343600196</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6078597232811883</v>
+        <v>-0.6201547571906387</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7427796349755641</v>
+        <v>-0.7654578363459226</v>
       </c>
     </row>
     <row r="21">
@@ -1192,24 +1192,24 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.074783278930845</v>
+        <v>2.145021314429076</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.072543697913546</v>
+        <v>3.040929266960936</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.835163343621423</v>
+        <v>1.713550932635548</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.970978710225658</v>
+        <v>1.788825021004275</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>5.971217177283725</v>
+        <v>5.123014998510404</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.407175373574191</v>
+        <v>2.074942607567177</v>
       </c>
     </row>
     <row r="22">
@@ -1256,28 +1256,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.2521376448696873</v>
+        <v>-0.2728659030983545</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.7839689791632311</v>
+        <v>-0.861550706592237</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.4756209887395607</v>
+        <v>-0.5118319505160549</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01818428059497191</v>
+        <v>0.1278355028616574</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.1274330978615958</v>
+        <v>-0.1290141192173556</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.2437123529615235</v>
+        <v>-0.2576570470855838</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2044036229781263</v>
+        <v>-0.2123593664677706</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.007806136749335536</v>
+        <v>0.0446718005683529</v>
       </c>
     </row>
     <row r="24">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.085208339745489</v>
+        <v>1.155547363300007</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9366729796354294</v>
+        <v>0.9013263050904431</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8555498412018423</v>
+        <v>0.9064967978207183</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.566738399939014</v>
+        <v>1.660138115386727</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.7478970856217678</v>
+        <v>0.7680794164457003</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.394017860462706</v>
+        <v>0.3850297007447512</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5071927037005892</v>
+        <v>0.5077269128270901</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.8114590188793354</v>
+        <v>0.8666200009847503</v>
       </c>
     </row>
     <row r="25">
